--- a/data/El Carmen.xlsx
+++ b/data/El Carmen.xlsx
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F43" t="n">

--- a/data/El Carmen.xlsx
+++ b/data/El Carmen.xlsx
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
